--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T19:03:54+00:00</t>
+    <t>2021-09-15T19:19:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="284">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T19:19:59+00:00</t>
+    <t>2021-09-15T19:37:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -600,17 +600,25 @@
     <t>Location.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint
+    <t xml:space="preserve">ContactPoint {http://fhir.openmrs.org/fhir/StructureDefinition/omrs-location-contact-point}
 </t>
   </si>
   <si>
-    <t>Contact details of the location</t>
-  </si>
-  <si>
-    <t>The contact details of communication devices available at the location. This can include phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
-  </si>
-  <si>
-    <t>.telecom</t>
+    <t>Details of a Technology mediated contact point (phone, fax, email, etc.)</t>
+  </si>
+  <si>
+    <t>Details for all kinds of technology mediated contact points for a person or organization, including telephone, email, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+  </si>
+  <si>
+    <t>TEL</t>
   </si>
   <si>
     <t>Location.address</t>
@@ -1457,7 +1465,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>79</v>
@@ -2402,7 +2410,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>79</v>
@@ -2435,7 +2443,7 @@
         <v>71</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="S12" t="s" s="2">
         <v>71</v>
@@ -2508,7 +2516,7 @@
         <v>72</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>71</v>
@@ -2608,7 +2616,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>79</v>
@@ -2716,7 +2724,7 @@
         <v>72</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>71</v>
@@ -2928,7 +2936,7 @@
         <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>71</v>
@@ -3035,7 +3043,7 @@
         <v>72</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>71</v>
@@ -3138,7 +3146,7 @@
         <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>71</v>
@@ -3216,13 +3224,13 @@
         <v>73</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>71</v>
@@ -3230,7 +3238,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3253,19 +3261,19 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>71</v>
@@ -3314,7 +3322,7 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>72</v>
@@ -3329,7 +3337,7 @@
         <v>91</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>71</v>
@@ -3337,7 +3345,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3348,7 +3356,7 @@
         <v>72</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>71</v>
@@ -3363,14 +3371,14 @@
         <v>182</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>71</v>
@@ -3395,13 +3403,13 @@
         <v>71</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>71</v>
@@ -3419,7 +3427,7 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
@@ -3434,7 +3442,7 @@
         <v>91</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>180</v>
@@ -3442,7 +3450,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3465,17 +3473,17 @@
         <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>71</v>
@@ -3524,7 +3532,7 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
@@ -3539,7 +3547,7 @@
         <v>91</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>71</v>
@@ -3547,7 +3555,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3573,10 +3581,10 @@
         <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3627,7 +3635,7 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>72</v>
@@ -3650,7 +3658,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3679,7 +3687,7 @@
         <v>126</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>128</v>
@@ -3732,7 +3740,7 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>72</v>
@@ -3755,11 +3763,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3781,10 +3789,10 @@
         <v>125</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>128</v>
@@ -3839,7 +3847,7 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
@@ -3862,7 +3870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3885,13 +3893,13 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3942,7 +3950,7 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -3957,7 +3965,7 @@
         <v>91</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>71</v>
@@ -3965,7 +3973,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3988,13 +3996,13 @@
         <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4045,7 +4053,7 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -4060,7 +4068,7 @@
         <v>91</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>71</v>
@@ -4068,7 +4076,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4091,13 +4099,13 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4148,7 +4156,7 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
@@ -4163,7 +4171,7 @@
         <v>91</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>71</v>
@@ -4171,7 +4179,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4182,7 +4190,7 @@
         <v>72</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>71</v>
@@ -4194,19 +4202,19 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>71</v>
@@ -4255,7 +4263,7 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
@@ -4270,7 +4278,7 @@
         <v>91</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>71</v>
@@ -4278,7 +4286,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4301,17 +4309,17 @@
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>71</v>
@@ -4360,7 +4368,7 @@
         <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
@@ -4375,7 +4383,7 @@
         <v>91</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>71</v>
@@ -4383,7 +4391,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4394,7 +4402,7 @@
         <v>72</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>71</v>
@@ -4406,16 +4414,16 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4465,7 +4473,7 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
@@ -4480,7 +4488,7 @@
         <v>91</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>71</v>
@@ -4488,7 +4496,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4514,10 +4522,10 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4568,7 +4576,7 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -4591,7 +4599,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4620,7 +4628,7 @@
         <v>126</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>128</v>
@@ -4673,7 +4681,7 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -4696,11 +4704,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4722,10 +4730,10 @@
         <v>125</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>128</v>
@@ -4780,7 +4788,7 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
@@ -4803,7 +4811,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4829,10 +4837,10 @@
         <v>99</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4862,10 +4870,10 @@
         <v>146</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>71</v>
@@ -4883,7 +4891,7 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
@@ -4898,7 +4906,7 @@
         <v>91</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>71</v>
@@ -4906,7 +4914,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4929,13 +4937,13 @@
         <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4986,7 +4994,7 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>72</v>
@@ -5001,7 +5009,7 @@
         <v>91</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>71</v>
@@ -5009,7 +5017,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5032,13 +5040,13 @@
         <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5089,7 +5097,7 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
@@ -5104,7 +5112,7 @@
         <v>91</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>71</v>
@@ -5112,7 +5120,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5135,13 +5143,13 @@
         <v>71</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5192,7 +5200,7 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>72</v>
@@ -5207,7 +5215,7 @@
         <v>91</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>71</v>
@@ -5215,7 +5223,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5226,7 +5234,7 @@
         <v>72</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>71</v>
@@ -5241,10 +5249,10 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5295,7 +5303,7 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
@@ -5318,7 +5326,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5329,7 +5337,7 @@
         <v>72</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>71</v>
@@ -5341,17 +5349,17 @@
         <v>71</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>71</v>
@@ -5400,7 +5408,7 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T19:37:29+00:00</t>
+    <t>2022-06-14T21:29:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-14T21:29:56+00:00</t>
+    <t>2022-06-14T21:30:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-14T21:30:34+00:00</t>
+    <t>2022-07-25T15:57:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1200,40 +1200,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.9765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.98046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="114.49609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="84.6796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="67.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="67.80078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="38.3125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="38.31640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="68.15625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T15:57:53+00:00</t>
+    <t>2022-07-25T17:08:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T17:08:13+00:00</t>
+    <t>2022-07-25T17:43:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T17:43:14+00:00</t>
+    <t>2022-07-25T17:48:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T17:48:07+00:00</t>
+    <t>2022-07-25T18:00:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T18:00:11+00:00</t>
+    <t>2022-07-25T18:06:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T18:06:36+00:00</t>
+    <t>2022-07-25T18:10:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T18:10:42+00:00</t>
+    <t>2022-07-25T18:28:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T18:28:18+00:00</t>
+    <t>2022-07-26T21:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="417">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:27:45+00:00</t>
+    <t>2022-07-27T18:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FHIR HL7 vs OMRS FHIR2</t>
   </si>
   <si>
     <t/>
@@ -250,6 +253,9 @@
     <t>.Role[classCode=SDLC]</t>
   </si>
   <si>
+    <t>OMRS Location</t>
+  </si>
+  <si>
     <t>Location.id</t>
   </si>
   <si>
@@ -275,6 +281,9 @@
     <t>Resource.id</t>
   </si>
   <si>
+    <t>Location.uuid</t>
+  </si>
+  <si>
     <t>Location.meta</t>
   </si>
   <si>
@@ -295,13 +304,193 @@
 </t>
   </si>
   <si>
-    <t>Location.implicitRules</t>
+    <t>Location.meta.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Location.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Location.meta.versionId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>Location.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>Location.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Location.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Location.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>Location.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>Location.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -397,28 +586,10 @@
     <t>Location.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Location.modifierExtension</t>
@@ -471,10 +642,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>Indicates whether the location is still in use.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/location-status|4.0.1</t>
+    <t>http://fhir.openmrs.org/fhir/ValueSet/location-status-vs</t>
   </si>
   <si>
     <t>.statusCode</t>
@@ -483,13 +651,12 @@
     <t>FiveWs.status</t>
   </si>
   <si>
+    <t>retired</t>
+  </si>
+  <si>
     <t>Location.operationalStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
     <t>The operational status of the location (typically only for a bed/room)</t>
   </si>
   <si>
@@ -502,9 +669,6 @@
     <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Location.name</t>
   </si>
   <si>
@@ -518,6 +682,9 @@
   </si>
   <si>
     <t>.name</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>Location.alias</t>
@@ -551,6 +718,9 @@
     <t>.playingEntity[classCode=PLC determinerCode=INSTANCE].desc</t>
   </si>
   <si>
+    <t>description</t>
+  </si>
+  <si>
     <t>Location.mode</t>
   </si>
   <si>
@@ -588,9 +758,6 @@
     <t>Indicates the type of function performed at the location.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
   </si>
   <si>
@@ -624,23 +791,277 @@
     <t>Location.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address
+    <t xml:space="preserve">Address {http://fhir.openmrs.org/fhir/StructureDefinition/omrs-address}
 </t>
   </si>
   <si>
-    <t>Physical location</t>
-  </si>
-  <si>
-    <t>Physical location.</t>
-  </si>
-  <si>
-    <t>Additional addresses should be recorded using another instance of the Location resource, or via the Organization.</t>
+    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats)</t>
+  </si>
+  <si>
+    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
+  </si>
+  <si>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>If locations can be visited, we need to keep track of their address.</t>
   </si>
   <si>
-    <t>.addr</t>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Location.address.id</t>
+  </si>
+  <si>
+    <t>Location.address.extension</t>
+  </si>
+  <si>
+    <t>Location.address.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | billing - purpose of this address</t>
+  </si>
+  <si>
+    <t>The purpose of this address.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows an appropriate address to be chosen from a list of many.</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>The use of an address.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.use</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>Location.address.type</t>
+  </si>
+  <si>
+    <t>postal | physical | both</t>
+  </si>
+  <si>
+    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
+  </si>
+  <si>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>The type of an address (physical / postal).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.type</t>
+  </si>
+  <si>
+    <t>Location.address.text</t>
+  </si>
+  <si>
+    <t>Text representation of the address</t>
+  </si>
+  <si>
+    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street, Erewhon 9132</t>
+  </si>
+  <si>
+    <t>Address.text</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>Location.address.line</t>
+  </si>
+  <si>
+    <t>Street name, number, direction &amp; P.O. Box etc.</t>
+  </si>
+  <si>
+    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street</t>
+  </si>
+  <si>
+    <t>Address.line</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = AL]</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>Location.address.city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municpality
+</t>
+  </si>
+  <si>
+    <t>Name of city, town etc.</t>
+  </si>
+  <si>
+    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
+  </si>
+  <si>
+    <t>Erewhon</t>
+  </si>
+  <si>
+    <t>Address.city</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CTY]</t>
+  </si>
+  <si>
+    <t>cityVillage</t>
+  </si>
+  <si>
+    <t>Location.address.district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">County
+</t>
+  </si>
+  <si>
+    <t>District name (aka county)</t>
+  </si>
+  <si>
+    <t>The name of the administrative area (county).</t>
+  </si>
+  <si>
+    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Address.district</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT | CPA]</t>
+  </si>
+  <si>
+    <t>countyDistrict</t>
+  </si>
+  <si>
+    <t>Location.address.state</t>
+  </si>
+  <si>
+    <t>Province
+Territory</t>
+  </si>
+  <si>
+    <t>Sub-unit of country (abbreviations ok)</t>
+  </si>
+  <si>
+    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
+  </si>
+  <si>
+    <t>Address.state</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = STA]</t>
+  </si>
+  <si>
+    <t>stateProvince</t>
+  </si>
+  <si>
+    <t>Location.address.postalCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip
+</t>
+  </si>
+  <si>
+    <t>Postal code for area</t>
+  </si>
+  <si>
+    <t>A postal code designating a region defined by the postal service.</t>
+  </si>
+  <si>
+    <t>9132</t>
+  </si>
+  <si>
+    <t>Address.postalCode</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = ZIP]</t>
+  </si>
+  <si>
+    <t>postalCode</t>
+  </si>
+  <si>
+    <t>Location.address.country</t>
+  </si>
+  <si>
+    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
+  </si>
+  <si>
+    <t>Country - a nation as commonly understood or generally accepted.</t>
+  </si>
+  <si>
+    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
+  </si>
+  <si>
+    <t>Address.country</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT]</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Location.address.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use.</t>
+  </si>
+  <si>
+    <t>Allows addresses to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
+  &lt;start value="2010-03-23"/&gt;
+  &lt;end value="2010-07-01"/&gt;
+&lt;/valuePeriod&gt;</t>
+  </si>
+  <si>
+    <t>Address.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
   </si>
   <si>
     <t>Location.physicalType</t>
@@ -653,9 +1074,6 @@
   </si>
   <si>
     <t>For purposes of showing relevant locations in queries, we need to categorize locations.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>Physical form of the location.</t>
@@ -689,22 +1107,7 @@
     <t>Location.position.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Location.position.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Location.position.modifierExtension</t>
@@ -740,6 +1143,9 @@
     <t>(RIM Opted not to map the sub-elements of GPS location, is now an OBS)</t>
   </si>
   <si>
+    <t>longintude</t>
+  </si>
+  <si>
     <t>Location.position.latitude</t>
   </si>
   <si>
@@ -747,6 +1153,9 @@
   </si>
   <si>
     <t>Latitude. The value domain and the interpretation are the same as for the text of the latitude element in KML (see notes below).</t>
+  </si>
+  <si>
+    <t>latitude</t>
   </si>
   <si>
     <t>Location.position.altitude</t>
@@ -797,6 +1206,9 @@
   </si>
   <si>
     <t>.inboundLink[typeCode=PART].source[classCode=SDLC]</t>
+  </si>
+  <si>
+    <t>parentLocation</t>
   </si>
   <si>
     <t>Location.hoursOfOperation</t>
@@ -1191,7 +1603,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK40"/>
+  <dimension ref="A1:AL60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1223,11 +1635,11 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="84.6796875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="67.80078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="38.31640625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1237,6 +1649,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="68.15625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="37.4609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1351,6 +1764,9 @@
       <c r="AK1" t="s" s="1">
         <v>70</v>
       </c>
+      <c r="AL1" t="s" s="1">
+        <v>71</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -1358,729 +1774,748 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE2" t="s" s="2">
         <v>27</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AL2" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AL3" t="s" s="2">
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -2089,521 +2524,538 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AL9" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>142</v>
+        <v>72</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>150</v>
+        <v>72</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>157</v>
+        <v>72</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>150</v>
+        <v>72</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -2612,868 +3064,886 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>175</v>
+        <v>72</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>178</v>
+        <v>72</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>180</v>
+        <v>72</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="O18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>184</v>
+        <v>72</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>180</v>
+        <v>72</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>192</v>
+        <v>72</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>71</v>
+        <v>197</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N20" t="s" s="2">
         <v>200</v>
       </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>71</v>
+        <v>202</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>71</v>
+        <v>204</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>205</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" t="s" s="2">
-        <v>205</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W21" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="X21" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>202</v>
-      </c>
       <c r="AF21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>209</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>180</v>
+        <v>204</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>212</v>
@@ -3481,1952 +3951,4165 @@
       <c r="L22" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>214</v>
       </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>215</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>216</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>126</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>222</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>157</v>
+        <v>226</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>224</v>
+        <v>72</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>71</v>
+        <v>233</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>71</v>
+        <v>235</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>71</v>
+        <v>239</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>71</v>
+        <v>240</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>71</v>
+        <v>235</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>91</v>
+        <v>247</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>240</v>
+        <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>241</v>
+        <v>96</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>239</v>
+        <v>98</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>245</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>247</v>
+        <v>102</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>248</v>
+        <v>103</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>246</v>
+        <v>109</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>251</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>71</v>
+        <v>263</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>71</v>
+        <v>264</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>71</v>
+        <v>265</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>71</v>
+        <v>273</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>71</v>
+        <v>274</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>219</v>
+        <v>275</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>157</v>
+        <v>267</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>126</v>
+        <v>277</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>71</v>
+        <v>281</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>222</v>
+        <v>282</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>157</v>
+        <v>283</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>224</v>
+        <v>72</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>225</v>
+        <v>285</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>71</v>
+        <v>287</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>227</v>
+        <v>288</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>122</v>
+        <v>289</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>290</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>71</v>
+        <v>292</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>71</v>
+        <v>295</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>263</v>
+        <v>72</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>264</v>
+        <v>72</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>298</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>71</v>
+        <v>300</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>266</v>
+        <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>71</v>
+        <v>304</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>307</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>71</v>
+        <v>309</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>270</v>
+        <v>83</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>256</v>
+        <v>313</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>314</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>71</v>
+        <v>316</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>270</v>
+        <v>83</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>71</v>
+        <v>319</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>273</v>
+        <v>320</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>256</v>
+        <v>321</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>322</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>276</v>
+        <v>327</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>157</v>
+        <v>328</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>329</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>279</v>
+        <v>330</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>280</v>
+        <v>331</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>281</v>
+        <v>332</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>71</v>
+        <v>335</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>279</v>
+        <v>336</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>157</v>
+        <v>337</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T18:06:27+00:00</t>
+    <t>2022-07-27T18:15:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T18:15:49+00:00</t>
+    <t>2022-08-08T14:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T14:54:31+00:00</t>
+    <t>2022-08-08T14:55:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T14:55:01+00:00</t>
+    <t>2022-08-08T14:55:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T14:55:43+00:00</t>
+    <t>2022-08-08T14:58:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T14:58:25+00:00</t>
+    <t>2022-09-20T21:17:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -265,48 +265,52 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Location.uuid</t>
+  </si>
+  <si>
+    <t>Location.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Location.meta.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Location.uuid</t>
-  </si>
-  <si>
-    <t>Location.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Location.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -357,10 +361,6 @@
   </si>
   <si>
     <t>Location.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -2113,13 +2113,13 @@
         <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2170,7 +2170,7 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>73</v>
@@ -2185,7 +2185,7 @@
         <v>72</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>72</v>
@@ -2196,11 +2196,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2219,16 +2219,16 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2266,19 +2266,19 @@
         <v>72</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>73</v>
@@ -2290,10 +2290,10 @@
         <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>72</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2327,7 +2327,7 @@
         <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>113</v>
@@ -3388,7 +3388,7 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3407,16 +3407,16 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3478,7 +3478,7 @@
         <v>72</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>182</v>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3515,7 +3515,7 @@
         <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>187</v>
@@ -3524,7 +3524,7 @@
         <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>189</v>
@@ -3588,7 +3588,7 @@
         <v>72</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>182</v>
@@ -3909,7 +3909,7 @@
         <v>94</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>204</v>
@@ -3943,7 +3943,7 @@
         <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>212</v>
@@ -4051,7 +4051,7 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>218</v>
@@ -4161,7 +4161,7 @@
         <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>223</v>
@@ -4701,13 +4701,13 @@
         <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4758,7 +4758,7 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
@@ -4773,7 +4773,7 @@
         <v>72</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>72</v>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4807,16 +4807,16 @@
         <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4854,19 +4854,19 @@
         <v>72</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>73</v>
@@ -4878,10 +4878,10 @@
         <v>72</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>72</v>
@@ -5133,7 +5133,7 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>277</v>
@@ -5243,7 +5243,7 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>285</v>
@@ -5349,7 +5349,7 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>293</v>
@@ -5455,7 +5455,7 @@
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>301</v>
@@ -5563,7 +5563,7 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>310</v>
@@ -5669,7 +5669,7 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>317</v>
@@ -5775,7 +5775,7 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>324</v>
@@ -6207,13 +6207,13 @@
         <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6264,7 +6264,7 @@
         <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
@@ -6279,7 +6279,7 @@
         <v>72</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>72</v>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6313,16 +6313,16 @@
         <v>72</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6372,7 +6372,7 @@
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>73</v>
@@ -6384,10 +6384,10 @@
         <v>72</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>72</v>
@@ -6421,7 +6421,7 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>355</v>
@@ -6430,7 +6430,7 @@
         <v>356</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>189</v>
@@ -6494,7 +6494,7 @@
         <v>72</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>182</v>
@@ -7175,13 +7175,13 @@
         <v>72</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7232,7 +7232,7 @@
         <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>73</v>
@@ -7247,7 +7247,7 @@
         <v>72</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>72</v>
@@ -7262,7 +7262,7 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7281,16 +7281,16 @@
         <v>72</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7340,7 +7340,7 @@
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>73</v>
@@ -7352,10 +7352,10 @@
         <v>72</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>72</v>
@@ -7389,7 +7389,7 @@
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>355</v>
@@ -7398,7 +7398,7 @@
         <v>356</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>189</v>
@@ -7462,7 +7462,7 @@
         <v>72</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>182</v>
@@ -7923,7 +7923,7 @@
         <v>72</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>410</v>
@@ -7995,7 +7995,7 @@
         <v>94</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>72</v>
@@ -8103,7 +8103,7 @@
         <v>94</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>72</v>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T21:17:20+00:00</t>
+    <t>2022-09-20T21:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T21:19:27+00:00</t>
+    <t>2022-09-20T21:37:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="416">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T21:37:06+00:00</t>
+    <t>2022-10-08T01:52:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -244,10 +244,6 @@
   </si>
   <si>
     <t>Details and position information for a physical place where services are provided and resources and participants may be stored, found, contained, or accommodated.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>.Role[classCode=SDLC]</t>
@@ -1862,21 +1858,21 @@
         <v>72</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1887,28 +1883,28 @@
         <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1958,33 +1954,33 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL3" t="s" s="2">
-        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1995,25 +1991,25 @@
         <v>73</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2064,19 +2060,19 @@
         <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>72</v>
@@ -2090,7 +2086,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2101,7 +2097,7 @@
         <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>72</v>
@@ -2113,13 +2109,13 @@
         <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2170,22 +2166,22 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>72</v>
@@ -2196,11 +2192,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2219,16 +2215,16 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2266,19 +2262,19 @@
         <v>72</v>
       </c>
       <c r="AA6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AB6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AC6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD6" t="s" s="2">
+      <c r="AE6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>73</v>
@@ -2290,10 +2286,10 @@
         <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>72</v>
@@ -2304,7 +2300,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2315,28 +2311,28 @@
         <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="J7" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="K7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2386,19 +2382,19 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>72</v>
@@ -2412,7 +2408,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2423,28 +2419,28 @@
         <v>73</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2494,19 +2490,19 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>72</v>
@@ -2520,7 +2516,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2531,28 +2527,28 @@
         <v>73</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2602,19 +2598,19 @@
         <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>72</v>
@@ -2628,7 +2624,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2648,19 +2644,19 @@
         <v>72</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2710,7 +2706,7 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>73</v>
@@ -2722,7 +2718,7 @@
         <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>72</v>
@@ -2736,7 +2732,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2756,19 +2752,19 @@
         <v>72</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2794,31 +2790,31 @@
         <v>72</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>73</v>
@@ -2830,7 +2826,7 @@
         <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>72</v>
@@ -2844,7 +2840,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2864,19 +2860,19 @@
         <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2902,31 +2898,31 @@
         <v>72</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>73</v>
@@ -2938,7 +2934,7 @@
         <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>72</v>
@@ -2947,12 +2943,12 @@
         <v>72</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2963,28 +2959,28 @@
         <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3034,19 +3030,19 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>72</v>
@@ -3060,7 +3056,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3071,7 +3067,7 @@
         <v>73</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>72</v>
@@ -3083,16 +3079,16 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3118,43 +3114,43 @@
         <v>72</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>72</v>
@@ -3168,18 +3164,18 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>72</v>
@@ -3191,16 +3187,16 @@
         <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3250,22 +3246,22 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>72</v>
@@ -3276,11 +3272,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3299,16 +3295,16 @@
         <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3358,7 +3354,7 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
@@ -3373,7 +3369,7 @@
         <v>72</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>72</v>
@@ -3384,11 +3380,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3407,16 +3403,16 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K17" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3466,7 +3462,7 @@
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>73</v>
@@ -3478,10 +3474,10 @@
         <v>72</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>72</v>
@@ -3492,11 +3488,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3509,25 +3505,25 @@
         <v>72</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>72</v>
@@ -3576,7 +3572,7 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>73</v>
@@ -3588,10 +3584,10 @@
         <v>72</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>72</v>
@@ -3602,7 +3598,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3610,32 +3606,32 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>72</v>
@@ -3684,7 +3680,7 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
@@ -3696,13 +3692,13 @@
         <v>72</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>72</v>
@@ -3710,7 +3706,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3718,28 +3714,28 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H20" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="I20" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3766,55 +3762,55 @@
         <v>72</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3825,25 +3821,25 @@
         <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J21" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3870,14 +3866,14 @@
         <v>72</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y21" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Y21" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="Z21" t="s" s="2">
         <v>72</v>
       </c>
@@ -3894,25 +3890,25 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>72</v>
@@ -3920,7 +3916,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3928,31 +3924,31 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4002,33 +3998,33 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4051,19 +4047,19 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>72</v>
@@ -4112,7 +4108,7 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>73</v>
@@ -4124,10 +4120,10 @@
         <v>72</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>72</v>
@@ -4138,7 +4134,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4149,29 +4145,29 @@
         <v>73</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>72</v>
@@ -4220,33 +4216,33 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4257,31 +4253,31 @@
         <v>73</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>72</v>
@@ -4306,49 +4302,49 @@
         <v>72</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AK25" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>72</v>
@@ -4356,7 +4352,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4376,16 +4372,16 @@
         <v>72</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4412,14 +4408,14 @@
         <v>72</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>72</v>
       </c>
@@ -4436,7 +4432,7 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>73</v>
@@ -4448,13 +4444,13 @@
         <v>72</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>72</v>
@@ -4462,7 +4458,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4473,7 +4469,7 @@
         <v>73</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>72</v>
@@ -4485,13 +4481,13 @@
         <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4542,7 +4538,7 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
@@ -4551,13 +4547,13 @@
         <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AI27" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AI27" t="s" s="2">
+      <c r="AJ27" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>72</v>
@@ -4568,7 +4564,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4579,7 +4575,7 @@
         <v>73</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>72</v>
@@ -4591,19 +4587,19 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>72</v>
@@ -4652,22 +4648,22 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>72</v>
@@ -4678,7 +4674,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4689,7 +4685,7 @@
         <v>73</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>72</v>
@@ -4701,13 +4697,13 @@
         <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4758,22 +4754,22 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>72</v>
@@ -4784,11 +4780,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4807,16 +4803,16 @@
         <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4854,19 +4850,19 @@
         <v>72</v>
       </c>
       <c r="AA30" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AB30" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AB30" t="s" s="2">
+      <c r="AC30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD30" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AC30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD30" t="s" s="2">
+      <c r="AE30" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>73</v>
@@ -4878,10 +4874,10 @@
         <v>72</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>72</v>
@@ -4892,7 +4888,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4903,31 +4899,31 @@
         <v>73</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H31" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="I31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>72</v>
@@ -4940,58 +4936,58 @@
         <v>72</v>
       </c>
       <c r="S31" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="X31" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="T31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="X31" t="s" s="2">
+      <c r="Y31" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE31" t="s" s="2">
+      <c r="AF31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>72</v>
@@ -5002,7 +4998,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5013,28 +5009,28 @@
         <v>73</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5048,58 +5044,58 @@
         <v>72</v>
       </c>
       <c r="S32" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="T32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>72</v>
@@ -5110,7 +5106,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5121,31 +5117,31 @@
         <v>73</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>72</v>
@@ -5158,58 +5154,58 @@
         <v>72</v>
       </c>
       <c r="S33" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="T33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE33" t="s" s="2">
+      <c r="AF33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>72</v>
@@ -5220,7 +5216,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5240,16 +5236,16 @@
         <v>72</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5264,43 +5260,43 @@
         <v>72</v>
       </c>
       <c r="S34" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>73</v>
@@ -5312,50 +5308,50 @@
         <v>72</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5370,101 +5366,101 @@
         <v>72</v>
       </c>
       <c r="S35" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="T35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE35" t="s" s="2">
+      <c r="AF35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AK35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>298</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5478,98 +5474,98 @@
         <v>72</v>
       </c>
       <c r="S36" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="T36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE36" t="s" s="2">
+      <c r="AF36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
+      <c r="AK36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>307</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5620,62 +5616,62 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
+      <c r="AK37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>314</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5690,69 +5686,69 @@
         <v>72</v>
       </c>
       <c r="S38" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="T38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE38" t="s" s="2">
+      <c r="AF38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AF38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
+      <c r="AK38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>322</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5763,28 +5759,28 @@
         <v>73</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5834,33 +5830,33 @@
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AF39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
+      <c r="AK39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>329</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5871,29 +5867,29 @@
         <v>73</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J40" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>72</v>
@@ -5906,58 +5902,58 @@
         <v>72</v>
       </c>
       <c r="S40" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE40" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="T40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE40" t="s" s="2">
+      <c r="AF40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>72</v>
@@ -5968,7 +5964,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5979,29 +5975,29 @@
         <v>73</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>72</v>
@@ -6026,49 +6022,49 @@
         <v>72</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="Y41" t="s" s="2">
+      <c r="Z41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="AK41" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>72</v>
@@ -6076,7 +6072,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6087,7 +6083,7 @@
         <v>73</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>72</v>
@@ -6099,17 +6095,17 @@
         <v>72</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>72</v>
@@ -6158,22 +6154,22 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>72</v>
@@ -6184,7 +6180,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6195,7 +6191,7 @@
         <v>73</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>72</v>
@@ -6207,13 +6203,13 @@
         <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6264,22 +6260,22 @@
         <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>72</v>
@@ -6290,11 +6286,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6313,16 +6309,16 @@
         <v>72</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6372,7 +6368,7 @@
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>73</v>
@@ -6384,10 +6380,10 @@
         <v>72</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>72</v>
@@ -6398,11 +6394,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6415,25 +6411,25 @@
         <v>72</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="M45" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>72</v>
@@ -6482,7 +6478,7 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
@@ -6494,10 +6490,10 @@
         <v>72</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>72</v>
@@ -6508,7 +6504,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6516,10 +6512,10 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>72</v>
@@ -6531,13 +6527,13 @@
         <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6588,33 +6584,33 @@
         <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>363</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6622,10 +6618,10 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>72</v>
@@ -6637,13 +6633,13 @@
         <v>72</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6694,33 +6690,33 @@
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6731,7 +6727,7 @@
         <v>73</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>72</v>
@@ -6743,13 +6739,13 @@
         <v>72</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6800,22 +6796,22 @@
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>72</v>
@@ -6826,7 +6822,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6837,31 +6833,31 @@
         <v>73</v>
       </c>
       <c r="F49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J49" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>72</v>
@@ -6910,22 +6906,22 @@
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>72</v>
@@ -6936,7 +6932,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6947,7 +6943,7 @@
         <v>73</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>72</v>
@@ -6959,17 +6955,17 @@
         <v>72</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>72</v>
@@ -7018,33 +7014,33 @@
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>384</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7067,16 +7063,16 @@
         <v>72</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7126,7 +7122,7 @@
         <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>73</v>
@@ -7138,10 +7134,10 @@
         <v>72</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>72</v>
@@ -7152,7 +7148,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7163,7 +7159,7 @@
         <v>73</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>72</v>
@@ -7175,13 +7171,13 @@
         <v>72</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7232,22 +7228,22 @@
         <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>72</v>
@@ -7258,11 +7254,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7281,16 +7277,16 @@
         <v>72</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7340,7 +7336,7 @@
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>73</v>
@@ -7352,10 +7348,10 @@
         <v>72</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>72</v>
@@ -7366,11 +7362,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7383,25 +7379,25 @@
         <v>72</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="M54" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>72</v>
@@ -7450,7 +7446,7 @@
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>73</v>
@@ -7462,10 +7458,10 @@
         <v>72</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>72</v>
@@ -7476,7 +7472,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7499,13 +7495,13 @@
         <v>72</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7532,14 +7528,14 @@
         <v>72</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X55" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="Y55" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="Y55" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="Z55" t="s" s="2">
         <v>72</v>
       </c>
@@ -7556,7 +7552,7 @@
         <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>73</v>
@@ -7568,10 +7564,10 @@
         <v>72</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>72</v>
@@ -7582,7 +7578,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7593,7 +7589,7 @@
         <v>73</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>72</v>
@@ -7605,13 +7601,13 @@
         <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7662,22 +7658,22 @@
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>72</v>
@@ -7688,7 +7684,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7699,7 +7695,7 @@
         <v>73</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>72</v>
@@ -7711,13 +7707,13 @@
         <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7768,22 +7764,22 @@
         <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>72</v>
@@ -7794,7 +7790,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7805,7 +7801,7 @@
         <v>73</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>72</v>
@@ -7817,13 +7813,13 @@
         <v>72</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7874,22 +7870,22 @@
         <v>72</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>72</v>
@@ -7900,7 +7896,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7911,7 +7907,7 @@
         <v>73</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>72</v>
@@ -7923,13 +7919,13 @@
         <v>72</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7980,22 +7976,22 @@
         <v>72</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>72</v>
@@ -8006,7 +8002,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8029,17 +8025,17 @@
         <v>72</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>72</v>
@@ -8088,7 +8084,7 @@
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>73</v>
@@ -8100,10 +8096,10 @@
         <v>72</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>72</v>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T01:52:10+00:00</t>
+    <t>2022-10-08T02:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:01:28+00:00</t>
+    <t>2022-10-08T02:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:02:22+00:00</t>
+    <t>2022-10-08T02:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:02:45+00:00</t>
+    <t>2022-10-08T02:04:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:04:28+00:00</t>
+    <t>2022-10-08T02:06:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:06:31+00:00</t>
+    <t>2022-10-08T02:08:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:08:40+00:00</t>
+    <t>2022-10-08T02:09:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:09:14+00:00</t>
+    <t>2022-10-08T02:10:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3606,10 +3606,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>72</v>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>80</v>
@@ -3821,7 +3821,7 @@
         <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>72</v>
@@ -4035,7 +4035,7 @@
         <v>73</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>72</v>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>80</v>
@@ -4253,7 +4253,7 @@
         <v>73</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>72</v>
@@ -4469,7 +4469,7 @@
         <v>73</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>72</v>
@@ -5975,7 +5975,7 @@
         <v>73</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>72</v>
@@ -6833,7 +6833,7 @@
         <v>73</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>72</v>
@@ -7051,7 +7051,7 @@
         <v>73</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>72</v>
@@ -7907,7 +7907,7 @@
         <v>73</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>72</v>
@@ -8013,7 +8013,7 @@
         <v>73</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>72</v>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:10:18+00:00</t>
+    <t>2022-10-08T02:12:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:12:18+00:00</t>
+    <t>2022-10-08T02:13:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:13:28+00:00</t>
+    <t>2022-10-08T02:14:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:14:23+00:00</t>
+    <t>2022-11-29T17:06:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T17:04:20+00:00</t>
+    <t>2023-03-15T20:21:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:21:30+00:00</t>
+    <t>2023-03-15T20:24:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:24:20+00:00</t>
+    <t>2023-03-15T20:24:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:24:19+00:00</t>
+    <t>2023-03-16T09:46:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>82</v>
@@ -3891,7 +3891,7 @@
         <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>73</v>
@@ -4111,7 +4111,7 @@
         <v>74</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>73</v>
@@ -4335,7 +4335,7 @@
         <v>74</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>73</v>
@@ -6105,7 +6105,7 @@
         <v>74</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>73</v>
@@ -6987,7 +6987,7 @@
         <v>74</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>73</v>
@@ -7211,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>73</v>
@@ -8091,7 +8091,7 @@
         <v>74</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>73</v>
@@ -8200,7 +8200,7 @@
         <v>74</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>73</v>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T09:46:21+00:00</t>
+    <t>2023-03-16T13:05:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T13:05:08+00:00</t>
+    <t>2023-03-20T20:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T20:26:34+00:00</t>
+    <t>2023-05-01T15:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="419">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.openmrs.org/fhir/StructureDefinition/omrs-location</t>
+    <t>http://fhir.openmrs.org/core/StructureDefinition/omrs-location</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T15:55:39+00:00</t>
+    <t>2023-05-08T19:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -645,7 +645,10 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://fhir.openmrs.org/fhir/ValueSet/location-status-vs</t>
+    <t>Indicates whether the location is still in use.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/location-status|4.0.1</t>
   </si>
   <si>
     <t>.statusCode</t>
@@ -770,7 +773,7 @@
     <t>Location.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {http://fhir.openmrs.org/fhir/StructureDefinition/omrs-location-contact-point}
+    <t xml:space="preserve">ContactPoint {http://fhir.openmrs.org/core/StructureDefinition/omrs-location-contact-point}
 </t>
   </si>
   <si>
@@ -794,7 +797,7 @@
     <t>Location.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {http://fhir.openmrs.org/fhir/StructureDefinition/omrs-address}
+    <t xml:space="preserve">Address {http://fhir.openmrs.org/core/StructureDefinition/omrs-address}
 </t>
   </si>
   <si>
@@ -1625,7 +1628,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="84.453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="85.39453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3831,9 +3834,11 @@
       <c r="X20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Y20" s="2"/>
+      <c r="Y20" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="Z20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>73</v>
@@ -3866,21 +3871,21 @@
         <v>95</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3906,10 +3911,10 @@
         <v>137</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3939,10 +3944,10 @@
         <v>164</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>73</v>
@@ -3960,7 +3965,7 @@
         <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
@@ -3978,7 +3983,7 @@
         <v>101</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>73</v>
@@ -3986,10 +3991,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4015,13 +4020,13 @@
         <v>97</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4071,7 +4076,7 @@
         <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>74</v>
@@ -4086,21 +4091,21 @@
         <v>95</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4126,16 +4131,16 @@
         <v>97</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>73</v>
@@ -4184,7 +4189,7 @@
         <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>74</v>
@@ -4199,7 +4204,7 @@
         <v>95</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>73</v>
@@ -4210,10 +4215,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4239,14 +4244,14 @@
         <v>97</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>73</v>
@@ -4295,7 +4300,7 @@
         <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>74</v>
@@ -4310,21 +4315,21 @@
         <v>95</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4350,16 +4355,16 @@
         <v>160</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>73</v>
@@ -4387,10 +4392,10 @@
         <v>202</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>73</v>
@@ -4408,7 +4413,7 @@
         <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>74</v>
@@ -4423,10 +4428,10 @@
         <v>95</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>73</v>
@@ -4434,10 +4439,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4460,13 +4465,13 @@
         <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4496,10 +4501,10 @@
         <v>141</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>73</v>
@@ -4517,7 +4522,7 @@
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>74</v>
@@ -4532,10 +4537,10 @@
         <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>73</v>
@@ -4543,10 +4548,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4569,13 +4574,13 @@
         <v>73</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4626,7 +4631,7 @@
         <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>74</v>
@@ -4635,13 +4640,13 @@
         <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>73</v>
@@ -4652,10 +4657,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4678,19 +4683,19 @@
         <v>73</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>73</v>
@@ -4739,7 +4744,7 @@
         <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>74</v>
@@ -4748,13 +4753,13 @@
         <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>73</v>
@@ -4765,10 +4770,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4874,10 +4879,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4985,10 +4990,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5014,16 +5019,16 @@
         <v>160</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>73</v>
@@ -5036,7 +5041,7 @@
         <v>73</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>73</v>
@@ -5051,10 +5056,10 @@
         <v>202</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>73</v>
@@ -5072,7 +5077,7 @@
         <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>74</v>
@@ -5087,7 +5092,7 @@
         <v>95</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>73</v>
@@ -5098,10 +5103,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5127,13 +5132,13 @@
         <v>160</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5147,7 +5152,7 @@
         <v>73</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>73</v>
@@ -5162,10 +5167,10 @@
         <v>202</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>73</v>
@@ -5183,7 +5188,7 @@
         <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>74</v>
@@ -5198,7 +5203,7 @@
         <v>95</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>73</v>
@@ -5209,10 +5214,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5238,16 +5243,16 @@
         <v>97</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>73</v>
@@ -5260,7 +5265,7 @@
         <v>73</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>73</v>
@@ -5296,7 +5301,7 @@
         <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>74</v>
@@ -5311,7 +5316,7 @@
         <v>95</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>73</v>
@@ -5322,10 +5327,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5351,10 +5356,10 @@
         <v>97</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5369,7 +5374,7 @@
         <v>73</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>73</v>
@@ -5405,7 +5410,7 @@
         <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>74</v>
@@ -5420,25 +5425,25 @@
         <v>95</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5460,10 +5465,10 @@
         <v>97</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5478,7 +5483,7 @@
         <v>73</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>73</v>
@@ -5514,7 +5519,7 @@
         <v>73</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>74</v>
@@ -5529,25 +5534,25 @@
         <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5569,13 +5574,13 @@
         <v>97</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5589,7 +5594,7 @@
         <v>73</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>73</v>
@@ -5625,7 +5630,7 @@
         <v>73</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>74</v>
@@ -5640,25 +5645,25 @@
         <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5680,10 +5685,10 @@
         <v>97</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5734,7 +5739,7 @@
         <v>73</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>74</v>
@@ -5749,25 +5754,25 @@
         <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5789,10 +5794,10 @@
         <v>97</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5807,7 +5812,7 @@
         <v>73</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>73</v>
@@ -5843,7 +5848,7 @@
         <v>73</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>74</v>
@@ -5858,21 +5863,21 @@
         <v>95</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5898,13 +5903,13 @@
         <v>97</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5954,7 +5959,7 @@
         <v>73</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>74</v>
@@ -5969,21 +5974,21 @@
         <v>95</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6006,17 +6011,17 @@
         <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>73</v>
@@ -6029,7 +6034,7 @@
         <v>73</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>73</v>
@@ -6065,7 +6070,7 @@
         <v>73</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>74</v>
@@ -6080,7 +6085,7 @@
         <v>95</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>73</v>
@@ -6091,10 +6096,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6117,17 +6122,17 @@
         <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>73</v>
@@ -6155,10 +6160,10 @@
         <v>149</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>73</v>
@@ -6176,7 +6181,7 @@
         <v>73</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>74</v>
@@ -6191,10 +6196,10 @@
         <v>95</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>73</v>
@@ -6202,10 +6207,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6228,17 +6233,17 @@
         <v>73</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>73</v>
@@ -6287,7 +6292,7 @@
         <v>73</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>74</v>
@@ -6302,7 +6307,7 @@
         <v>95</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>73</v>
@@ -6313,10 +6318,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6422,10 +6427,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6533,14 +6538,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6562,10 +6567,10 @@
         <v>104</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>107</v>
@@ -6620,7 +6625,7 @@
         <v>73</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>74</v>
@@ -6646,10 +6651,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6672,13 +6677,13 @@
         <v>73</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6729,7 +6734,7 @@
         <v>73</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>82</v>
@@ -6744,21 +6749,21 @@
         <v>95</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6781,13 +6786,13 @@
         <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6838,7 +6843,7 @@
         <v>73</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>82</v>
@@ -6853,21 +6858,21 @@
         <v>95</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6890,13 +6895,13 @@
         <v>73</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6947,7 +6952,7 @@
         <v>73</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>74</v>
@@ -6962,7 +6967,7 @@
         <v>95</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>73</v>
@@ -6973,10 +6978,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6999,19 +7004,19 @@
         <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>73</v>
@@ -7060,7 +7065,7 @@
         <v>73</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>74</v>
@@ -7075,7 +7080,7 @@
         <v>95</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>73</v>
@@ -7086,10 +7091,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7112,17 +7117,17 @@
         <v>73</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>73</v>
@@ -7171,7 +7176,7 @@
         <v>73</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>74</v>
@@ -7186,21 +7191,21 @@
         <v>95</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7223,16 +7228,16 @@
         <v>73</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7282,7 +7287,7 @@
         <v>73</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>74</v>
@@ -7297,7 +7302,7 @@
         <v>95</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>73</v>
@@ -7308,10 +7313,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7417,10 +7422,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7528,14 +7533,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7557,10 +7562,10 @@
         <v>104</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>107</v>
@@ -7615,7 +7620,7 @@
         <v>73</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>74</v>
@@ -7641,10 +7646,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7670,10 +7675,10 @@
         <v>160</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7703,10 +7708,10 @@
         <v>202</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>73</v>
@@ -7724,7 +7729,7 @@
         <v>73</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>74</v>
@@ -7739,7 +7744,7 @@
         <v>95</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>73</v>
@@ -7750,10 +7755,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7776,13 +7781,13 @@
         <v>73</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7833,7 +7838,7 @@
         <v>73</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>74</v>
@@ -7848,7 +7853,7 @@
         <v>95</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>73</v>
@@ -7859,10 +7864,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7885,13 +7890,13 @@
         <v>73</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7942,7 +7947,7 @@
         <v>73</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>74</v>
@@ -7957,7 +7962,7 @@
         <v>95</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>73</v>
@@ -7968,10 +7973,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7994,13 +7999,13 @@
         <v>73</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8051,7 +8056,7 @@
         <v>73</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>74</v>
@@ -8066,7 +8071,7 @@
         <v>95</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>73</v>
@@ -8077,10 +8082,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8106,10 +8111,10 @@
         <v>97</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8160,7 +8165,7 @@
         <v>73</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>74</v>
@@ -8186,10 +8191,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8212,17 +8217,17 @@
         <v>73</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>73</v>
@@ -8271,7 +8276,7 @@
         <v>73</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-08T19:25:22+00:00</t>
+    <t>2023-05-09T05:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-09T05:52:21+00:00</t>
+    <t>2023-05-17T15:10:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="380">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-17T15:10:06+00:00</t>
+    <t>2023-06-22T11:16:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,123 +115,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FHIR HL7 vs OMRS FHIR2</t>
   </si>
   <si>
     <t/>
@@ -1436,10 +1319,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1609,7 +1492,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM60"/>
+  <dimension ref="A1:AM59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1620,13 +1503,11 @@
   <cols>
     <col min="1" max="1" width="42.98046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.98046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="85.39453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1634,5932 +1515,5927 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="38.31640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="68.15625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="37.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="14.87890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>34</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AM1" t="s" s="2">
         <v>41</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>87</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>89</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>68</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="H6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>73</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>149</v>
+        <v>34</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>153</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>166</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>177</v>
+        <v>64</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>65</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>66</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P17" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="S17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="AK17" t="s" s="2">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>196</v>
-      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>73</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>205</v>
+        <v>62</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>207</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>211</v>
+        <v>34</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>212</v>
+        <v>34</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>206</v>
+        <v>34</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>73</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P22" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>218</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>73</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>229</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="Z25" t="s" s="2">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>241</v>
+        <v>34</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>242</v>
+        <v>34</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>237</v>
+        <v>34</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P27" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>249</v>
+        <v>56</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>252</v>
+        <v>58</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>253</v>
+        <v>59</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>251</v>
+        <v>61</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>248</v>
+        <v>34</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>257</v>
+        <v>62</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>68</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>105</v>
+        <v>222</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>106</v>
+        <v>223</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="P30" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>73</v>
+        <v>226</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>73</v>
+        <v>227</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>73</v>
+        <v>228</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>111</v>
+        <v>229</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="P32" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>275</v>
+        <v>34</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>276</v>
+        <v>34</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>73</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>73</v>
+        <v>255</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>292</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>300</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>306</v>
+        <v>34</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>309</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>73</v>
+        <v>282</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>316</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>318</v>
+        <v>34</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>321</v>
+        <v>34</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>324</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>97</v>
+        <v>294</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="P39" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>73</v>
+        <v>298</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>331</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>333</v>
+        <v>200</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>337</v>
+        <v>34</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>73</v>
+        <v>305</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>73</v>
+        <v>306</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>239</v>
+        <v>309</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>149</v>
+        <v>34</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>344</v>
+        <v>34</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>345</v>
+        <v>34</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>237</v>
+        <v>34</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>348</v>
+        <v>58</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>349</v>
+        <v>59</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>351</v>
-      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>347</v>
+        <v>61</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>352</v>
+        <v>62</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>68</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>103</v>
+        <v>317</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>105</v>
+        <v>318</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>106</v>
+        <v>319</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P44" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="S44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="AK44" t="s" s="2">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>356</v>
+        <v>34</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>104</v>
+        <v>322</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>183</v>
+        <v>325</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>73</v>
+        <v>326</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>365</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>369</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="P48" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>73</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>381</v>
+        <v>309</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>386</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>348</v>
+        <v>58</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>388</v>
+        <v>59</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>387</v>
+        <v>61</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>391</v>
+        <v>62</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>68</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>103</v>
+        <v>317</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>105</v>
+        <v>318</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>106</v>
+        <v>319</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P53" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="S53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="AK53" t="s" s="2">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>356</v>
+        <v>34</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>357</v>
@@ -7567,737 +7443,624 @@
       <c r="M54" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="N54" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>190</v>
-      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>73</v>
+        <v>360</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>183</v>
+        <v>352</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>160</v>
+        <v>362</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>398</v>
+        <v>34</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>399</v>
+        <v>34</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>408</v>
+        <v>372</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>408</v>
+        <v>372</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>405</v>
+        <v>58</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>409</v>
+        <v>373</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>410</v>
+        <v>374</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>408</v>
+        <v>372</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>391</v>
+        <v>62</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>97</v>
+        <v>376</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="P59" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T11:16:34+00:00</t>
+    <t>2023-06-23T17:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location.xlsx
+++ b/StructureDefinition-omrs-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="421">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-23T17:20:12+00:00</t>
+    <t>2024-12-11T17:17:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,7 +66,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>OpenMRS, Inc. (https://openmrs.org)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -117,7 +123,121 @@
     <t>constraint</t>
   </si>
   <si>
-    <t/>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: FHIR HL7 vs OMRS FHIR2</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t>0</t>
@@ -136,10 +256,14 @@
     <t>Details and position information for a physical place where services are provided and resources and participants may be stored, found, contained, or accommodated.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
+    <t>OMRS Location</t>
+  </si>
+  <si>
     <t>.Role[classCode=SDLC]</t>
-  </si>
-  <si>
-    <t>OMRS Location</t>
   </si>
   <si>
     <t>Location.id</t>
@@ -534,15 +658,15 @@
     <t>http://hl7.org/fhir/ValueSet/location-status|4.0.1</t>
   </si>
   <si>
+    <t>retired</t>
+  </si>
+  <si>
     <t>.statusCode</t>
   </si>
   <si>
     <t>FiveWs.status</t>
   </si>
   <si>
-    <t>retired</t>
-  </si>
-  <si>
     <t>Location.operationalStatus</t>
   </si>
   <si>
@@ -570,10 +694,10 @@
     <t>If the name of a location changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>.name</t>
-  </si>
-  <si>
-    <t>name</t>
   </si>
   <si>
     <t>Location.alias</t>
@@ -604,10 +728,10 @@
     <t>Humans need additional information to verify a correct location has been identified.</t>
   </si>
   <si>
+    <t>description</t>
+  </si>
+  <si>
     <t>.playingEntity[classCode=PLC determinerCode=INSTANCE].desc</t>
-  </si>
-  <si>
-    <t>description</t>
   </si>
   <si>
     <t>Location.mode</t>
@@ -798,10 +922,10 @@
     <t>Address.line</t>
   </si>
   <si>
+    <t>address1</t>
+  </si>
+  <si>
     <t>AD.part[parttype = AL]</t>
-  </si>
-  <si>
-    <t>address1</t>
   </si>
   <si>
     <t>Location.address.city</t>
@@ -823,10 +947,10 @@
     <t>Address.city</t>
   </si>
   <si>
+    <t>cityVillage</t>
+  </si>
+  <si>
     <t>AD.part[parttype = CTY]</t>
-  </si>
-  <si>
-    <t>cityVillage</t>
   </si>
   <si>
     <t>Location.address.district</t>
@@ -851,10 +975,10 @@
     <t>Address.district</t>
   </si>
   <si>
+    <t>countyDistrict</t>
+  </si>
+  <si>
     <t>AD.part[parttype = CNT | CPA]</t>
-  </si>
-  <si>
-    <t>countyDistrict</t>
   </si>
   <si>
     <t>Location.address.state</t>
@@ -873,10 +997,10 @@
     <t>Address.state</t>
   </si>
   <si>
+    <t>stateProvince</t>
+  </si>
+  <si>
     <t>AD.part[parttype = STA]</t>
-  </si>
-  <si>
-    <t>stateProvince</t>
   </si>
   <si>
     <t>Location.address.postalCode</t>
@@ -898,12 +1022,12 @@
     <t>Address.postalCode</t>
   </si>
   <si>
+    <t>postalCode</t>
+  </si>
+  <si>
     <t>AD.part[parttype = ZIP]</t>
   </si>
   <si>
-    <t>postalCode</t>
-  </si>
-  <si>
     <t>Location.address.country</t>
   </si>
   <si>
@@ -919,10 +1043,10 @@
     <t>Address.country</t>
   </si>
   <si>
+    <t>country</t>
+  </si>
+  <si>
     <t>AD.part[parttype = CNT]</t>
-  </si>
-  <si>
-    <t>country</t>
   </si>
   <si>
     <t>Location.address.period</t>
@@ -1029,10 +1153,10 @@
     <t>Longitude. The value domain and the interpretation are the same as for the text of the longitude element in KML (see notes below).</t>
   </si>
   <si>
+    <t>longintude</t>
+  </si>
+  <si>
     <t>(RIM Opted not to map the sub-elements of GPS location, is now an OBS)</t>
-  </si>
-  <si>
-    <t>longintude</t>
   </si>
   <si>
     <t>Location.position.latitude</t>
@@ -1094,10 +1218,10 @@
     <t>For purposes of location, display and identification, knowing which locations are located within other locations is important.</t>
   </si>
   <si>
+    <t>parentLocation</t>
+  </si>
+  <si>
     <t>.inboundLink[typeCode=PART].source[classCode=SDLC]</t>
-  </si>
-  <si>
-    <t>parentLocation</t>
   </si>
   <si>
     <t>Location.hoursOfOperation</t>
@@ -1331,7 +1455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1429,21 +1553,21 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>23</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -1483,6 +1607,14 @@
       </c>
       <c r="B19" t="s" s="2">
         <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1492,7 +1624,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM59"/>
+  <dimension ref="A1:AM60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1503,11 +1635,13 @@
   <cols>
     <col min="1" max="1" width="42.98046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.98046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="85.39453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1515,6552 +1649,6670 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="38.31640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="68.15625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="16.3984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="14.87890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="37.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="68.15625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AK1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="AL1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AM1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>41</v>
+      </c>
+      <c r="G1" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>48</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>68</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH7" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AG7" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="AI7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>114</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>66</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>68</v>
+        <v>183</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>34</v>
+        <v>185</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>34</v>
+        <v>185</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O18" t="s" s="2">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="P19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>168</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>125</v>
+        <v>204</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>62</v>
+        <v>207</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>34</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>34</v>
+        <v>214</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>179</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>190</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>196</v>
+        <v>19</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="P25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>34</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>34</v>
+        <v>244</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>210</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>34</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>34</v>
+        <v>252</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>58</v>
+        <v>254</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>59</v>
+        <v>255</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="P28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>34</v>
+        <v>259</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>68</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>222</v>
+        <v>107</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>227</v>
+        <v>19</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>228</v>
+        <v>19</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>229</v>
+        <v>113</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>230</v>
+        <v>19</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="P31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>230</v>
+        <v>19</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>34</v>
+        <v>271</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>34</v>
+        <v>277</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>34</v>
+        <v>278</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>246</v>
+        <v>19</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>34</v>
+        <v>271</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="P33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>34</v>
+        <v>287</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>253</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>255</v>
+        <v>19</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>34</v>
+        <v>294</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>261</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>34</v>
+        <v>302</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>270</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>34</v>
+        <v>308</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>34</v>
+        <v>311</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>277</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>282</v>
+        <v>19</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>34</v>
+        <v>318</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>285</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>34</v>
+        <v>320</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>34</v>
+        <v>323</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>34</v>
+        <v>326</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>292</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>294</v>
+        <v>99</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>34</v>
+        <v>333</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>200</v>
+        <v>335</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>34</v>
+        <v>339</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>305</v>
+        <v>19</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>306</v>
+        <v>19</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>307</v>
+        <v>19</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>198</v>
+        <v>341</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>34</v>
+        <v>346</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>34</v>
+        <v>347</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>313</v>
+        <v>19</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>34</v>
+        <v>348</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>34</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>58</v>
+        <v>350</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>59</v>
+        <v>351</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>60</v>
+        <v>352</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="P42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>61</v>
+        <v>349</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>34</v>
+        <v>354</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>68</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>317</v>
+        <v>105</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>318</v>
+        <v>107</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>319</v>
+        <v>108</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>320</v>
+        <v>113</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>34</v>
+        <v>358</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>322</v>
+        <v>106</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="P45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>325</v>
+        <v>19</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>34</v>
+        <v>185</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>326</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>34</v>
+        <v>367</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>330</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>34</v>
+        <v>367</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>340</v>
+        <v>19</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>34</v>
+        <v>367</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="O49" t="s" s="2">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>346</v>
+        <v>19</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>34</v>
+        <v>381</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>347</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="P50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>34</v>
+        <v>388</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>58</v>
+        <v>350</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>59</v>
+        <v>390</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>61</v>
+        <v>389</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>34</v>
+        <v>393</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>68</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>317</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>318</v>
+        <v>107</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>319</v>
+        <v>108</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>320</v>
+        <v>113</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>34</v>
+        <v>358</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="P54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>359</v>
+        <v>19</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>352</v>
+        <v>19</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>34</v>
+        <v>185</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>362</v>
+        <v>162</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>34</v>
+        <v>400</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>34</v>
+        <v>401</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>352</v>
+        <v>19</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>34</v>
+        <v>393</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>352</v>
+        <v>19</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>34</v>
+        <v>393</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>352</v>
+        <v>19</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>34</v>
+        <v>393</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>58</v>
+        <v>407</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>374</v>
+        <v>412</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>34</v>
+        <v>393</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>376</v>
+        <v>99</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>379</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
